--- a/Assets/DrawBounce/Tables/MapDataTable.xlsx
+++ b/Assets/DrawBounce/Tables/MapDataTable.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>Index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -37,28 +37,100 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Block</t>
+    <t>Map_1_1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>MovingBlock</t>
+    <t>Map_1_2</t>
+  </si>
+  <si>
+    <t>Map_1_3</t>
+  </si>
+  <si>
+    <t>Map_1_4</t>
+  </si>
+  <si>
+    <t>Map_2_5</t>
+  </si>
+  <si>
+    <t>Map_2_6</t>
+  </si>
+  <si>
+    <t>Map_2_1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>일반 블록</t>
+    <t>Map_2_2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>움직이는 블록</t>
+    <t>Map_2_3</t>
+  </si>
+  <si>
+    <t>Map_2_4</t>
+  </si>
+  <si>
+    <t>Map_3_1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Height</t>
+    <t>Map_3_2</t>
+  </si>
+  <si>
+    <t>Map_3_3</t>
+  </si>
+  <si>
+    <t>Map_3_4</t>
+  </si>
+  <si>
+    <t>Map_4_1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Width</t>
+    <t>Map_4_2</t>
+  </si>
+  <si>
+    <t>Map_4_3</t>
+  </si>
+  <si>
+    <t>Map_4_4</t>
+  </si>
+  <si>
+    <t>Map_4_5</t>
+  </si>
+  <si>
+    <t>Map_4_6</t>
+  </si>
+  <si>
+    <t>Map_4_7</t>
+  </si>
+  <si>
+    <t>Map_4_8</t>
+  </si>
+  <si>
+    <t>Map_4_9</t>
+  </si>
+  <si>
+    <t>Map_4_10</t>
+  </si>
+  <si>
+    <t>Map_5_1</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Map_5_2</t>
+  </si>
+  <si>
+    <t>Map_5_3</t>
+  </si>
+  <si>
+    <t>Map_5_4</t>
+  </si>
+  <si>
+    <t>Map_5_5</t>
+  </si>
+  <si>
+    <t>Map_5_6</t>
   </si>
 </sst>
 </file>
@@ -435,7 +507,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -443,20 +515,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:D102"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="37.125" customWidth="1"/>
-    <col min="5" max="6" width="30.75" customWidth="1"/>
+    <col min="2" max="3" width="37.125" customWidth="1"/>
+    <col min="4" max="4" width="30.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -467,16 +539,10 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -484,19 +550,10 @@
         <v>4</v>
       </c>
       <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>3</v>
-      </c>
-      <c r="E2">
-        <v>10</v>
-      </c>
-      <c r="F2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -506,14 +563,668 @@
       <c r="C3">
         <v>1</v>
       </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
         <v>10</v>
       </c>
-      <c r="F3" t="s">
+      <c r="C6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9">
         <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>29</v>
+      </c>
+      <c r="C27">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>30</v>
+      </c>
+      <c r="C28">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>31</v>
+      </c>
+      <c r="C29">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>32</v>
+      </c>
+      <c r="C30">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>33</v>
+      </c>
+      <c r="C31">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A90">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A91">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A92">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A93">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A94">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A95">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A96">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A97">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A98">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A99">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A100">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A101">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A102">
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/DrawBounce/Tables/MapDataTable.xlsx
+++ b/Assets/DrawBounce/Tables/MapDataTable.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>Index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -131,6 +131,38 @@
   </si>
   <si>
     <t>Map_5_6</t>
+  </si>
+  <si>
+    <t>Map_6_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Map_6_2</t>
+  </si>
+  <si>
+    <t>Map_6_3</t>
+  </si>
+  <si>
+    <t>Map_6_4</t>
+  </si>
+  <si>
+    <t>Map_6_5</t>
+  </si>
+  <si>
+    <t>Map_6_6</t>
+  </si>
+  <si>
+    <t>Map_7_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Map_7_2</t>
+  </si>
+  <si>
+    <t>Map_7_3</t>
+  </si>
+  <si>
+    <t>Map_7_4</t>
   </si>
 </sst>
 </file>
@@ -507,7 +539,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -517,8 +549,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -876,83 +908,143 @@
       <c r="A32">
         <v>30</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B32" t="s">
+        <v>34</v>
+      </c>
+      <c r="C32">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>31</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B33" t="s">
+        <v>35</v>
+      </c>
+      <c r="C33">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>32</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B34" t="s">
+        <v>36</v>
+      </c>
+      <c r="C34">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>33</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B35" t="s">
+        <v>37</v>
+      </c>
+      <c r="C35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>34</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B36" t="s">
+        <v>38</v>
+      </c>
+      <c r="C36">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>35</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B37" t="s">
+        <v>39</v>
+      </c>
+      <c r="C37">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>36</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B38" t="s">
+        <v>40</v>
+      </c>
+      <c r="C38">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>37</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B39" t="s">
+        <v>41</v>
+      </c>
+      <c r="C39">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>38</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B40" t="s">
+        <v>42</v>
+      </c>
+      <c r="C40">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>39</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B41" t="s">
+        <v>43</v>
+      </c>
+      <c r="C41">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>40</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>41</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>42</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>43</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>44</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>45</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>46</v>
       </c>

--- a/Assets/DrawBounce/Tables/MapDataTable.xlsx
+++ b/Assets/DrawBounce/Tables/MapDataTable.xlsx
@@ -33,10 +33,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Level</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Map_1_1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -163,6 +159,10 @@
   </si>
   <si>
     <t>Map_7_4</t>
+  </si>
+  <si>
+    <t>MapNumber</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -539,7 +539,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -550,7 +550,7 @@
   <dimension ref="A1:D102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -568,7 +568,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>3</v>
+        <v>43</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
@@ -579,7 +579,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -590,7 +590,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -601,7 +601,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -612,7 +612,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -623,7 +623,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C6">
         <v>2</v>
@@ -634,7 +634,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C7">
         <v>2</v>
@@ -645,7 +645,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C8">
         <v>2</v>
@@ -656,7 +656,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C9">
         <v>2</v>
@@ -667,7 +667,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C10">
         <v>2</v>
@@ -678,7 +678,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C11">
         <v>2</v>
@@ -689,7 +689,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C12">
         <v>3</v>
@@ -700,7 +700,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C13">
         <v>3</v>
@@ -711,7 +711,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C14">
         <v>3</v>
@@ -722,7 +722,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C15">
         <v>3</v>
@@ -733,7 +733,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C16">
         <v>4</v>
@@ -744,7 +744,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C17">
         <v>4</v>
@@ -755,7 +755,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C18">
         <v>4</v>
@@ -766,7 +766,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C19">
         <v>4</v>
@@ -777,7 +777,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C20">
         <v>4</v>
@@ -788,7 +788,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C21">
         <v>4</v>
@@ -799,7 +799,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C22">
         <v>4</v>
@@ -810,7 +810,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C23">
         <v>4</v>
@@ -821,7 +821,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C24">
         <v>4</v>
@@ -832,7 +832,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C25">
         <v>4</v>
@@ -843,7 +843,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C26">
         <v>5</v>
@@ -854,7 +854,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C27">
         <v>5</v>
@@ -865,7 +865,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C28">
         <v>5</v>
@@ -876,7 +876,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C29">
         <v>5</v>
@@ -887,7 +887,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C30">
         <v>5</v>
@@ -898,7 +898,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C31">
         <v>5</v>
@@ -909,7 +909,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C32">
         <v>6</v>
@@ -920,7 +920,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C33">
         <v>6</v>
@@ -931,7 +931,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C34">
         <v>6</v>
@@ -942,7 +942,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C35">
         <v>6</v>
@@ -953,7 +953,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C36">
         <v>6</v>
@@ -964,7 +964,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C37">
         <v>6</v>
@@ -975,7 +975,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C38">
         <v>7</v>
@@ -986,7 +986,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C39">
         <v>7</v>
@@ -997,7 +997,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C40">
         <v>7</v>
@@ -1008,7 +1008,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C41">
         <v>7</v>

--- a/Assets/DrawBounce/Tables/MapDataTable.xlsx
+++ b/Assets/DrawBounce/Tables/MapDataTable.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>Index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -92,77 +92,101 @@
     <t>Map_4_4</t>
   </si>
   <si>
-    <t>Map_4_5</t>
-  </si>
-  <si>
-    <t>Map_4_6</t>
-  </si>
-  <si>
-    <t>Map_4_7</t>
-  </si>
-  <si>
-    <t>Map_4_8</t>
-  </si>
-  <si>
-    <t>Map_4_9</t>
-  </si>
-  <si>
-    <t>Map_4_10</t>
+    <t>Map_5_2</t>
+  </si>
+  <si>
+    <t>Map_5_3</t>
+  </si>
+  <si>
+    <t>Map_6_2</t>
+  </si>
+  <si>
+    <t>Map_6_3</t>
+  </si>
+  <si>
+    <t>Map_6_4</t>
+  </si>
+  <si>
+    <t>Map_7_2</t>
+  </si>
+  <si>
+    <t>Map_7_3</t>
+  </si>
+  <si>
+    <t>Map_7_4</t>
+  </si>
+  <si>
+    <t>MapNumber</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Map_5_1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Map_5_2</t>
-  </si>
-  <si>
-    <t>Map_5_3</t>
-  </si>
-  <si>
-    <t>Map_5_4</t>
-  </si>
-  <si>
-    <t>Map_5_5</t>
-  </si>
-  <si>
-    <t>Map_5_6</t>
-  </si>
-  <si>
     <t>Map_6_1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Map_6_2</t>
-  </si>
-  <si>
-    <t>Map_6_3</t>
-  </si>
-  <si>
-    <t>Map_6_4</t>
-  </si>
-  <si>
-    <t>Map_6_5</t>
-  </si>
-  <si>
-    <t>Map_6_6</t>
-  </si>
-  <si>
     <t>Map_7_1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Map_7_2</t>
-  </si>
-  <si>
-    <t>Map_7_3</t>
-  </si>
-  <si>
-    <t>Map_7_4</t>
-  </si>
-  <si>
-    <t>MapNumber</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>Map_7_5</t>
+  </si>
+  <si>
+    <t>Map_7_6</t>
+  </si>
+  <si>
+    <t>Map_8_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Map_8_2</t>
+  </si>
+  <si>
+    <t>Map_8_3</t>
+  </si>
+  <si>
+    <t>Map_8_4</t>
+  </si>
+  <si>
+    <t>Map_8_5</t>
+  </si>
+  <si>
+    <t>Map_8_6</t>
+  </si>
+  <si>
+    <t>Map_9_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Map_9_2</t>
+  </si>
+  <si>
+    <t>Map_9_3</t>
+  </si>
+  <si>
+    <t>Map_9_4</t>
+  </si>
+  <si>
+    <t>Map_10_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Map_10_2</t>
+  </si>
+  <si>
+    <t>Map_10_3</t>
+  </si>
+  <si>
+    <t>Map_10_4</t>
+  </si>
+  <si>
+    <t>Map_10_5</t>
+  </si>
+  <si>
+    <t>Map_10_6</t>
   </si>
 </sst>
 </file>
@@ -549,8 +573,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D102"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -568,7 +592,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
@@ -777,10 +801,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="C20">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
@@ -788,10 +812,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C21">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
@@ -799,10 +823,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C22">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
@@ -810,10 +834,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C23">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
@@ -821,10 +845,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C24">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
@@ -832,10 +856,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C25">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
@@ -843,10 +867,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C26">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
@@ -854,10 +878,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C27">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
@@ -865,10 +889,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C28">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
@@ -876,10 +900,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C29">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
@@ -887,10 +911,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C30">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
@@ -898,10 +922,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C31">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
@@ -909,10 +933,10 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C32">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
@@ -920,10 +944,10 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C33">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
@@ -931,10 +955,10 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C34">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
@@ -942,10 +966,10 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C35">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
@@ -953,10 +977,10 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C36">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
@@ -964,10 +988,10 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C37">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
@@ -975,10 +999,10 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C38">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
@@ -986,10 +1010,10 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C39">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
@@ -997,10 +1021,10 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C40">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
@@ -1008,45 +1032,87 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C41">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>40</v>
       </c>
+      <c r="B42" t="s">
+        <v>44</v>
+      </c>
+      <c r="C42">
+        <v>9</v>
+      </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>41</v>
       </c>
+      <c r="B43" t="s">
+        <v>45</v>
+      </c>
+      <c r="C43">
+        <v>10</v>
+      </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>42</v>
       </c>
+      <c r="B44" t="s">
+        <v>46</v>
+      </c>
+      <c r="C44">
+        <v>10</v>
+      </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>43</v>
       </c>
+      <c r="B45" t="s">
+        <v>47</v>
+      </c>
+      <c r="C45">
+        <v>10</v>
+      </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>44</v>
       </c>
+      <c r="B46" t="s">
+        <v>48</v>
+      </c>
+      <c r="C46">
+        <v>10</v>
+      </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>45</v>
       </c>
+      <c r="B47" t="s">
+        <v>49</v>
+      </c>
+      <c r="C47">
+        <v>10</v>
+      </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>50</v>
+      </c>
+      <c r="C48">
+        <v>10</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
